--- a/01_분석_설계/시나리오/테스트_발표용.xlsx
+++ b/01_분석_설계/시나리오/테스트_발표용.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimDJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\team_project\gitFiles\LottoTeamProject\01_분석_설계\시나리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B562332-2EF7-403C-9F65-52B6B219732A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014237FD-E14A-441E-BE66-3B849893793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -1036,13 +1036,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 주문일 : 2024-05-18
- 주문상태 : 결제완료
- 상품 상세보기 : hihamin12의 주문을 상세조회
- 주문상태변경 : hihamin12의 주문을 상품준비중으로 변경 -&gt; 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 로그아웃
 2. admin 로그인
 3. 공지사항 전체조회
@@ -1139,6 +1132,13 @@
 3. 로그인 
    - 회원 ID : user12
    - 비밀번호 : !User123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 주문일 : 2024-05-18
+ 주문상태 : 결제완료
+ 상품 상세보기 : lotto12의 주문을 상세조회
+ 주문상태변경 : lotto12의 주문을 상품준비중으로 변경 -&gt; 저장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2248,7 +2248,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
@@ -2535,7 +2535,7 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
@@ -2737,7 +2737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="17.25">
+    <row r="33" spans="2:6" ht="18">
       <c r="B33" s="31" t="s">
         <v>90</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="2:6" ht="17.25">
+    <row r="34" spans="2:6" ht="18">
       <c r="B34" s="10" t="s">
         <v>91</v>
       </c>
@@ -2763,7 +2763,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="2:6" ht="17.25">
+    <row r="35" spans="2:6" ht="18">
       <c r="B35" s="10" t="s">
         <v>92</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="2:6" ht="17.25">
+    <row r="36" spans="2:6" ht="18">
       <c r="B36" s="10" t="s">
         <v>93</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="2:6" ht="17.25">
+    <row r="37" spans="2:6" ht="18">
       <c r="B37" s="10" t="s">
         <v>94</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="2:6" ht="17.25">
+    <row r="38" spans="2:6" ht="18">
       <c r="B38" s="10" t="s">
         <v>95</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="2:6" ht="17.25">
+    <row r="39" spans="2:6" ht="18">
       <c r="B39" s="10" t="s">
         <v>96</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="2:6" ht="17.25">
+    <row r="40" spans="2:6" ht="18">
       <c r="B40" s="10" t="s">
         <v>97</v>
       </c>
@@ -2841,7 +2841,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="2:6" ht="17.25">
+    <row r="41" spans="2:6" ht="18">
       <c r="B41" s="10" t="s">
         <v>98</v>
       </c>
@@ -2877,7 +2877,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
@@ -2900,7 +2900,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="17.25">
+    <row r="4" spans="2:10" ht="18">
       <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="17.25">
+    <row r="11" spans="2:10" ht="18">
       <c r="B11" s="31" t="s">
         <v>90</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="2:10" ht="17.25">
+    <row r="12" spans="2:10" ht="18">
       <c r="B12" s="10" t="s">
         <v>91</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="2:10" ht="17.25">
+    <row r="13" spans="2:10" ht="18">
       <c r="B13" s="10" t="s">
         <v>92</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="2:10" ht="17.25">
+    <row r="14" spans="2:10" ht="18">
       <c r="B14" s="10" t="s">
         <v>93</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="2:10" ht="17.25">
+    <row r="15" spans="2:10" ht="18">
       <c r="B15" s="10" t="s">
         <v>94</v>
       </c>
@@ -3118,7 +3118,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="2:10" ht="17.25">
+    <row r="16" spans="2:10" ht="18">
       <c r="B16" s="10" t="s">
         <v>95</v>
       </c>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="2:10" ht="17.25">
+    <row r="17" spans="2:10" ht="18">
       <c r="B17" s="10" t="s">
         <v>96</v>
       </c>
@@ -3154,7 +3154,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="2:10" ht="17.25">
+    <row r="18" spans="2:10" ht="18">
       <c r="B18" s="10" t="s">
         <v>97</v>
       </c>
@@ -3171,7 +3171,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="2:10" ht="17.25">
+    <row r="19" spans="2:10" ht="18">
       <c r="B19" s="10" t="s">
         <v>98</v>
       </c>
@@ -3313,7 +3313,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
@@ -3539,7 +3539,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" customWidth="1"/>
@@ -3622,7 +3622,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="34.15" thickBot="1">
+    <row r="8" spans="2:8" ht="33.75" thickBot="1">
       <c r="B8" s="31" t="s">
         <v>113</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="33.75">
+    <row r="9" spans="2:8" ht="33">
       <c r="B9" s="31" t="s">
         <v>116</v>
       </c>
@@ -3868,17 +3868,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:F44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="70.1875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="95.1875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.25" style="46" customWidth="1"/>
+    <col min="5" max="5" width="95.25" style="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3955,7 +3955,7 @@
       <c r="E7" s="44"/>
       <c r="F7" s="59"/>
     </row>
-    <row r="8" spans="2:6" ht="185.65">
+    <row r="8" spans="2:6" ht="181.5">
       <c r="B8" s="49">
         <v>1</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="F8" s="53"/>
     </row>
-    <row r="9" spans="2:6" ht="33.75">
+    <row r="9" spans="2:6" ht="33">
       <c r="B9" s="49">
         <v>2</v>
       </c>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="F9" s="53"/>
     </row>
-    <row r="10" spans="2:6" ht="219.4">
+    <row r="10" spans="2:6" ht="214.5">
       <c r="B10" s="49">
         <v>3</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>139</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="53"/>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="F11" s="53"/>
     </row>
-    <row r="12" spans="2:6" ht="168.75">
+    <row r="12" spans="2:6" ht="165">
       <c r="B12" s="49">
         <v>5</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="53"/>
     </row>
-    <row r="15" spans="2:6" ht="50.65">
+    <row r="15" spans="2:6" ht="49.5">
       <c r="B15" s="49">
         <v>8</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="E16" s="44"/>
       <c r="F16" s="53"/>
     </row>
-    <row r="17" spans="2:6" ht="50.65">
+    <row r="17" spans="2:6" ht="49.5">
       <c r="B17" s="49">
         <v>10</v>
       </c>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="F18" s="53"/>
     </row>
-    <row r="19" spans="2:6" ht="67.5">
+    <row r="19" spans="2:6" ht="66">
       <c r="B19" s="49">
         <v>12</v>
       </c>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="F19" s="53"/>
     </row>
-    <row r="20" spans="2:6" ht="67.5">
+    <row r="20" spans="2:6" ht="66">
       <c r="B20" s="49">
         <v>13</v>
       </c>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="F20" s="53"/>
     </row>
-    <row r="21" spans="2:6" ht="101.25">
+    <row r="21" spans="2:6" ht="99">
       <c r="B21" s="49">
         <v>14</v>
       </c>
@@ -4155,7 +4155,7 @@
       <c r="E21" s="44"/>
       <c r="F21" s="53"/>
     </row>
-    <row r="22" spans="2:6" ht="50.65">
+    <row r="22" spans="2:6" ht="49.5">
       <c r="B22" s="49">
         <v>15</v>
       </c>
@@ -4198,7 +4198,7 @@
       <c r="E24" s="44"/>
       <c r="F24" s="53"/>
     </row>
-    <row r="25" spans="2:6" ht="50.65">
+    <row r="25" spans="2:6" ht="49.5">
       <c r="B25" s="49">
         <v>18</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="E25" s="44"/>
       <c r="F25" s="53"/>
     </row>
-    <row r="26" spans="2:6" ht="169.8" customHeight="1">
+    <row r="26" spans="2:6" ht="169.9" customHeight="1">
       <c r="B26" s="49">
         <v>19</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="E26" s="44"/>
       <c r="F26" s="53"/>
     </row>
-    <row r="27" spans="2:6" ht="84.4">
+    <row r="27" spans="2:6" ht="82.5">
       <c r="B27" s="49">
         <v>20</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="E27" s="44"/>
       <c r="F27" s="53"/>
     </row>
-    <row r="28" spans="2:6" ht="202.5">
+    <row r="28" spans="2:6" ht="198">
       <c r="B28" s="49">
         <v>21</v>
       </c>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="F28" s="53"/>
     </row>
-    <row r="29" spans="2:6" ht="84.4">
+    <row r="29" spans="2:6" ht="82.5">
       <c r="B29" s="49">
         <v>22</v>
       </c>
@@ -4302,7 +4302,7 @@
       <c r="E32" s="44"/>
       <c r="F32" s="53"/>
     </row>
-    <row r="33" spans="2:6" ht="67.5">
+    <row r="33" spans="2:6" ht="66">
       <c r="B33" s="49">
         <v>26</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>186</v>
       </c>
       <c r="D33" s="50" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E33" s="44" t="s">
         <v>187</v>
@@ -4325,7 +4325,7 @@
         <v>200</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="53"/>
@@ -4343,7 +4343,7 @@
       <c r="E35" s="44"/>
       <c r="F35" s="53"/>
     </row>
-    <row r="36" spans="2:6" ht="67.5">
+    <row r="36" spans="2:6" ht="66">
       <c r="B36" s="49">
         <v>29</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="E36" s="44"/>
       <c r="F36" s="53"/>
     </row>
-    <row r="37" spans="2:6" ht="168.75">
+    <row r="37" spans="2:6" ht="165">
       <c r="B37" s="49">
         <v>30</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>151</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E37" s="44"/>
       <c r="F37" s="53"/>
@@ -4377,14 +4377,14 @@
         <v>150</v>
       </c>
       <c r="D38" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" s="44" t="s">
         <v>173</v>
       </c>
       <c r="F38" s="53"/>
     </row>
-    <row r="39" spans="2:6" ht="135">
+    <row r="39" spans="2:6" ht="132">
       <c r="B39" s="49">
         <v>32</v>
       </c>
@@ -4392,14 +4392,14 @@
         <v>203</v>
       </c>
       <c r="D39" s="50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E39" s="44" t="s">
         <v>176</v>
       </c>
       <c r="F39" s="53"/>
     </row>
-    <row r="40" spans="2:6" ht="185.65">
+    <row r="40" spans="2:6" ht="181.5">
       <c r="B40" s="49">
         <v>33</v>
       </c>
@@ -4407,14 +4407,14 @@
         <v>156</v>
       </c>
       <c r="D40" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E40" s="44" t="s">
         <v>212</v>
       </c>
       <c r="F40" s="53"/>
     </row>
-    <row r="41" spans="2:6" ht="33.75">
+    <row r="41" spans="2:6" ht="33">
       <c r="B41" s="49">
         <v>34</v>
       </c>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="F42" s="53"/>
     </row>
-    <row r="43" spans="2:6" ht="84.4">
+    <row r="43" spans="2:6" ht="82.5">
       <c r="B43" s="49">
         <v>36</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>205</v>
       </c>
       <c r="D43" s="50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E43" s="44"/>
       <c r="F43" s="53"/>

--- a/01_분석_설계/시나리오/테스트_발표용.xlsx
+++ b/01_분석_설계/시나리오/테스트_발표용.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\team_project\gitFiles\LottoTeamProject\01_분석_설계\시나리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014237FD-E14A-441E-BE66-3B849893793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7123810-E325-40CD-92BF-DFB5DC9680A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="226">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -910,10 +910,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리뷰 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 Q&amp;A 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1135,10 +1131,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>쇼핑몰 메인페이지 설명 및 상품 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 전체 상품 보여주기 
+2. 카테고리별 상품 보여주기
+3. 배터클릭으로 해당상품 이동
+4. 검색 상품 보여주기 , 검색어 : 바디로션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 주문일 : 2024-05-18
  주문상태 : 결제완료
  상품 상세보기 : lotto12의 주문을 상세조회
- 주문상태변경 : lotto12의 주문을 상품준비중으로 변경 -&gt; 저장</t>
+ 주문상태변경 : lotto12의 주문을 상품준비중으로 변경 -&gt; 저장
+Edge 마이페이지에서 100284의 주문을 결제완료에서 상품 준비중으로 변경되었는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 작성 및 내가 쓴 글 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3866,10 +3878,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:F44"/>
+  <dimension ref="B1:F45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -3993,137 +4005,135 @@
         <v>139</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="53"/>
     </row>
-    <row r="11" spans="2:6" ht="33.6" customHeight="1">
+    <row r="11" spans="2:6" ht="66">
       <c r="B11" s="49">
         <v>4</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>171</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="E11" s="44"/>
       <c r="F11" s="53"/>
     </row>
-    <row r="12" spans="2:6" ht="165">
+    <row r="12" spans="2:6" ht="33.6" customHeight="1">
       <c r="B12" s="49">
         <v>5</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F12" s="53"/>
     </row>
-    <row r="13" spans="2:6" ht="101.45" customHeight="1">
+    <row r="13" spans="2:6" ht="165">
       <c r="B13" s="49">
         <v>6</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>168</v>
+        <v>189</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="F13" s="53"/>
     </row>
-    <row r="14" spans="2:6" ht="59.45" customHeight="1">
+    <row r="14" spans="2:6" ht="101.45" customHeight="1">
       <c r="B14" s="49">
         <v>7</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="56"/>
+        <v>205</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>168</v>
+      </c>
       <c r="F14" s="53"/>
     </row>
-    <row r="15" spans="2:6" ht="49.5">
+    <row r="15" spans="2:6" ht="59.45" customHeight="1">
       <c r="B15" s="49">
         <v>8</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="44"/>
+        <v>190</v>
+      </c>
+      <c r="E15" s="56"/>
       <c r="F15" s="53"/>
     </row>
-    <row r="16" spans="2:6" ht="51" customHeight="1">
+    <row r="16" spans="2:6" ht="49.5">
       <c r="B16" s="49">
         <v>9</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="E16" s="44"/>
       <c r="F16" s="53"/>
     </row>
-    <row r="17" spans="2:6" ht="49.5">
+    <row r="17" spans="2:6" ht="51" customHeight="1">
       <c r="B17" s="49">
         <v>10</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>177</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E17" s="44"/>
       <c r="F17" s="53"/>
     </row>
-    <row r="18" spans="2:6" ht="47.45" customHeight="1">
+    <row r="18" spans="2:6" ht="49.5">
       <c r="B18" s="49">
         <v>11</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F18" s="53"/>
     </row>
-    <row r="19" spans="2:6" ht="66">
+    <row r="19" spans="2:6" ht="47.45" customHeight="1">
       <c r="B19" s="49">
         <v>12</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F19" s="53"/>
     </row>
@@ -4132,339 +4142,354 @@
         <v>13</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F20" s="53"/>
     </row>
-    <row r="21" spans="2:6" ht="99">
+    <row r="21" spans="2:6" ht="66">
       <c r="B21" s="49">
         <v>14</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" s="44"/>
+        <v>212</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>175</v>
+      </c>
       <c r="F21" s="53"/>
     </row>
-    <row r="22" spans="2:6" ht="49.5">
+    <row r="22" spans="2:6" ht="99">
       <c r="B22" s="49">
         <v>15</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>195</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E22" s="44"/>
       <c r="F22" s="53"/>
     </row>
-    <row r="23" spans="2:6" ht="48.6" customHeight="1">
+    <row r="23" spans="2:6" ht="49.5">
       <c r="B23" s="49">
         <v>16</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F23" s="53"/>
     </row>
-    <row r="24" spans="2:6" ht="179.45" customHeight="1">
+    <row r="24" spans="2:6" ht="48.6" customHeight="1">
       <c r="B24" s="49">
         <v>17</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="44"/>
+        <v>207</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>194</v>
+      </c>
       <c r="F24" s="53"/>
     </row>
-    <row r="25" spans="2:6" ht="49.5">
+    <row r="25" spans="2:6" ht="179.45" customHeight="1">
       <c r="B25" s="49">
         <v>18</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="53"/>
     </row>
-    <row r="26" spans="2:6" ht="169.9" customHeight="1">
+    <row r="26" spans="2:6" ht="49.5">
       <c r="B26" s="49">
         <v>19</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E26" s="44"/>
       <c r="F26" s="53"/>
     </row>
-    <row r="27" spans="2:6" ht="82.5">
+    <row r="27" spans="2:6" ht="169.9" customHeight="1">
       <c r="B27" s="49">
         <v>20</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E27" s="44"/>
       <c r="F27" s="53"/>
     </row>
-    <row r="28" spans="2:6" ht="198">
+    <row r="28" spans="2:6" ht="82.5">
       <c r="B28" s="49">
         <v>21</v>
       </c>
-      <c r="C28" s="54" t="s">
-        <v>198</v>
+      <c r="C28" s="55" t="s">
+        <v>157</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>169</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E28" s="44"/>
       <c r="F28" s="53"/>
     </row>
-    <row r="29" spans="2:6" ht="82.5">
+    <row r="29" spans="2:6" ht="198">
       <c r="B29" s="49">
         <v>22</v>
       </c>
-      <c r="C29" s="55" t="s">
-        <v>181</v>
+      <c r="C29" s="54" t="s">
+        <v>197</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="44"/>
+        <v>198</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>169</v>
+      </c>
       <c r="F29" s="53"/>
     </row>
-    <row r="30" spans="2:6" ht="41.45" customHeight="1">
+    <row r="30" spans="2:6" ht="82.5">
       <c r="B30" s="49">
         <v>23</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E30" s="44"/>
       <c r="F30" s="53"/>
     </row>
-    <row r="31" spans="2:6" ht="39" customHeight="1">
+    <row r="31" spans="2:6" ht="41.45" customHeight="1">
       <c r="B31" s="49">
         <v>24</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D31" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E31" s="44"/>
       <c r="F31" s="53"/>
     </row>
-    <row r="32" spans="2:6" ht="47.45" customHeight="1">
+    <row r="32" spans="2:6" ht="39" customHeight="1">
       <c r="B32" s="49">
         <v>25</v>
       </c>
-      <c r="C32" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="50"/>
+      <c r="C32" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>209</v>
+      </c>
       <c r="E32" s="44"/>
       <c r="F32" s="53"/>
     </row>
-    <row r="33" spans="2:6" ht="66">
+    <row r="33" spans="2:6" ht="47.45" customHeight="1">
       <c r="B33" s="49">
         <v>26</v>
       </c>
-      <c r="C33" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="E33" s="44" t="s">
-        <v>187</v>
-      </c>
+      <c r="C33" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="44"/>
       <c r="F33" s="53"/>
     </row>
-    <row r="34" spans="2:6" ht="183" customHeight="1">
+    <row r="34" spans="2:6" ht="115.5">
       <c r="B34" s="49">
         <v>27</v>
       </c>
-      <c r="C34" s="55" t="s">
-        <v>200</v>
+      <c r="C34" s="54" t="s">
+        <v>186</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" s="44"/>
+        <v>224</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>187</v>
+      </c>
       <c r="F34" s="53"/>
     </row>
-    <row r="35" spans="2:6" ht="128.44999999999999" customHeight="1">
+    <row r="35" spans="2:6" ht="183" customHeight="1">
       <c r="B35" s="49">
         <v>28</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="D35" s="50" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="E35" s="44"/>
       <c r="F35" s="53"/>
     </row>
-    <row r="36" spans="2:6" ht="66">
+    <row r="36" spans="2:6" ht="128.44999999999999" customHeight="1">
       <c r="B36" s="49">
         <v>29</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E36" s="44"/>
       <c r="F36" s="53"/>
     </row>
-    <row r="37" spans="2:6" ht="165">
+    <row r="37" spans="2:6" ht="66">
       <c r="B37" s="49">
         <v>30</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E37" s="44"/>
       <c r="F37" s="53"/>
     </row>
-    <row r="38" spans="2:6" ht="128.44999999999999" customHeight="1">
+    <row r="38" spans="2:6" ht="165">
       <c r="B38" s="49">
         <v>31</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>173</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E38" s="44"/>
       <c r="F38" s="53"/>
     </row>
-    <row r="39" spans="2:6" ht="132">
+    <row r="39" spans="2:6" ht="128.44999999999999" customHeight="1">
       <c r="B39" s="49">
         <v>32</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="D39" s="50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F39" s="53"/>
     </row>
-    <row r="40" spans="2:6" ht="181.5">
+    <row r="40" spans="2:6" ht="132">
       <c r="B40" s="49">
         <v>33</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="D40" s="50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="F40" s="53"/>
     </row>
-    <row r="41" spans="2:6" ht="33">
+    <row r="41" spans="2:6" ht="181.5">
       <c r="B41" s="49">
         <v>34</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D41" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="44"/>
+        <v>219</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>211</v>
+      </c>
       <c r="F41" s="53"/>
     </row>
-    <row r="42" spans="2:6" ht="165.6" customHeight="1">
+    <row r="42" spans="2:6" ht="33">
       <c r="B42" s="49">
         <v>35</v>
       </c>
-      <c r="C42" s="64" t="s">
-        <v>204</v>
+      <c r="C42" s="55" t="s">
+        <v>152</v>
       </c>
       <c r="D42" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>170</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E42" s="44"/>
       <c r="F42" s="53"/>
     </row>
-    <row r="43" spans="2:6" ht="82.5">
+    <row r="43" spans="2:6" ht="165.6" customHeight="1">
       <c r="B43" s="49">
         <v>36</v>
       </c>
-      <c r="C43" s="58" t="s">
-        <v>205</v>
+      <c r="C43" s="64" t="s">
+        <v>203</v>
       </c>
       <c r="D43" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="E43" s="44"/>
+        <v>180</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>170</v>
+      </c>
       <c r="F43" s="53"/>
     </row>
-    <row r="44" spans="2:6" ht="17.25" thickBot="1">
+    <row r="44" spans="2:6" ht="82.5">
       <c r="B44" s="49">
         <v>37</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="44"/>
+      <c r="F44" s="53"/>
+    </row>
+    <row r="45" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B45" s="49">
+        <v>38</v>
+      </c>
+      <c r="C45" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="63"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
